--- a/downloads/CurrentInventory.xlsx
+++ b/downloads/CurrentInventory.xlsx
@@ -22,16 +22,16 @@
     <t>Product</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>XL</t>
   </si>
   <si>
     <t>XS</t>
@@ -412,46 +412,46 @@
         <v>8</v>
       </c>
       <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>30</v>
-      </c>
       <c r="L2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N2">
         <v>30</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -468,10 +468,10 @@
         <v>25</v>
       </c>
       <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
         <v>24</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/CurrentInventory.xlsx
+++ b/downloads/CurrentInventory.xlsx
@@ -22,16 +22,16 @@
     <t>Product</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>XL</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>XS</t>
@@ -375,13 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -412,49 +412,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-      <c r="L2">
         <v>22</v>
       </c>
-      <c r="M2">
-        <v>35</v>
-      </c>
-      <c r="N2">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -462,15 +435,12 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
         <v>24</v>
       </c>
     </row>

--- a/downloads/CurrentInventory.xlsx
+++ b/downloads/CurrentInventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Category</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>XS</t>
+  </si>
+  <si>
+    <t>XXL</t>
   </si>
   <si>
     <t>All</t>
@@ -375,13 +378,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,13 +406,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -427,12 +433,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -441,7 +447,10 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/CurrentInventory.xlsx
+++ b/downloads/CurrentInventory.xlsx
@@ -378,13 +378,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -421,19 +421,94 @@
         <v>15</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>35</v>
       </c>
-      <c r="E2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>22</v>
       </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -444,12 +519,72 @@
         <v>25</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>28</v>
       </c>
     </row>

--- a/downloads/CurrentInventory.xlsx
+++ b/downloads/CurrentInventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Category</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Prod1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Prod2</t>
@@ -378,13 +381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -421,170 +424,44 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>35</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>12</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
         <v>22</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
         <v>28</v>
       </c>
     </row>
